--- a/priority_validation_expts/Summary.xlsx
+++ b/priority_validation_expts/Summary.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ak7\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ak7\OneDrive - UC San Diego\Illinois Urbana Champaign\Repositories\qos_synthesis\priority_validation_expts\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
   <si>
     <t>300k packets @ 100us</t>
   </si>
@@ -83,9 +83,6 @@
     <t>429.53 us</t>
   </si>
   <si>
-    <t>164.75 seconds</t>
-  </si>
-  <si>
     <t>433.17 us</t>
   </si>
   <si>
@@ -113,20 +110,83 @@
     <t>135.39 seconds</t>
   </si>
   <si>
-    <t>This is  data collected fopr end to end delays of high priority and low priority flows in a network with 2 host pairs (4 hosts) exchanging realtime traffic and  1 host pair (2 hosts) exchanging background traffic. The realtime traffic is generated by sending UDP packets of a certain size at a certain interval.  The non-realtime traffic is generated using netperf such that it consumes as close to the link capacity as possible.
+    <t>1 link</t>
+  </si>
+  <si>
+    <t>360.92 us</t>
+  </si>
+  <si>
+    <t>22.6 seconds</t>
+  </si>
+  <si>
+    <t>22.9 seconds</t>
+  </si>
+  <si>
+    <t>52.26 seconds</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This is  data collected for end to end delays of high priority and low priority flows in a network with 2 host pairs (4 hosts) exchanging realtime traffic and  1 host pair (2 hosts) exchanging background traffic. The realtime traffic is generated by sending UDP packets of a certain size at a certain interval.  The non-realtime traffic is generated using netperf such that it consumes as close to the link capacity as possible.
 The flows are assigned different priorities by assigning them to different queues in a Pica8 switch. The prioritization is automatically taken care of by Pica8. There are 8 queues per port. Queue 7 is of highest priority, Queue 0 is of lowest priority. We use Queue 4 for non-realtime traffic.
 Observations:
 1. In row 3, one can see that the end to end delay increases when the interference is increased from 2 links to 3 links.
 2. For a particular topology, the queue priorities are not observed when the packet period is &gt;= 10000us and we don't see any difference in the low and high priority numbers. Check (K4, L4), (K6,L6), (N4,O4) and (N6, K6). Quite possibly,  for lower rates, the network is not stressed enough for the switches to prioritise between the flows. 
-3. For packet periods 100us, 500 us and 1000 us, we see that the lowest priority flow is almost choked. So much so that, it waits for the flow completion time of the high priority flow. In these cases, we also observe certain number of dropped packets at the server, since it prioritizes the background traffic over the low priority traffic.
-4. The priorities are also valid when we start the low priority earlier. Initially, the numbers are good, but then once the high priority flow kicks in, it gets delayed.</t>
+3. For packet periods 100us, 500 us and 1000 us, we see that the lowest priority flow is almost choked. So much so that, it waits for the flow completion time of the high priority flow and the background traffic. In these cases, we also observe certain number of dropped packets at the server, since it prioritizes the background traffic over the low priority traffic. Thus, it is difficult to estimate these numbers with accuracy.
+4. The priorities are also valid when we start the low priority earlier. Initially, the numbers are good, but then once the high priority flow kicks in, it gets delayed.
+5. Monotonicaly increasing e2e delays of low priority times .
+6. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TODO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 1 link(done)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Peroidic netperf traffic.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Diamond Topologly
+1. Interference in ??
+-- Instead of global prorities, can we do different prio's at differnt points in the nw.
+</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,8 +202,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF92D050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -153,12 +227,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -181,33 +249,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -522,484 +594,527 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O35"/>
+  <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:O35"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
-    <col min="5" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" customWidth="1"/>
-    <col min="15" max="15" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.85546875" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="2" t="s">
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="9"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="9"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="9"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="2"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="2" t="s">
+      <c r="P2" s="9"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="2"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3" t="s">
+      <c r="T2" s="9"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4"/>
+      <c r="F3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="H3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="4"/>
+      <c r="J3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="L3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="6"/>
-      <c r="K3" s="3" t="s">
+      <c r="M3" s="4"/>
+      <c r="N3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="P3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="6"/>
-      <c r="N3" s="3" t="s">
+      <c r="Q3" s="4"/>
+      <c r="R3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="S3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="T3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="10">
+        <v>389</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="10">
+        <v>396.95</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="4"/>
+      <c r="N4" s="10">
+        <v>410.91</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="10">
+        <v>427.63</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="T4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="6"/>
-      <c r="K4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M4" s="6"/>
-      <c r="N4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O4" s="3" t="s">
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="10">
+        <v>19.190000000000001</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" s="4"/>
+      <c r="N6" s="10">
+        <v>420.3</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P6" s="2">
+        <v>408.95</v>
+      </c>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="10">
+        <v>431.92</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T6" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="J6" s="6"/>
-      <c r="K6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L6" s="4">
-        <v>408.95</v>
-      </c>
-      <c r="M6" s="6"/>
-      <c r="N6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="M7" s="7"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="M8" s="7"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="M9" s="7"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="M10" s="7"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="M11" s="7"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="M12" s="7"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="M13" s="7"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="M14" s="7"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="M15" s="7"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="M16" s="7"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="M17" s="7"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="M18" s="7"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="M19" s="7"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="M20" s="7"/>
-    </row>
-    <row r="25" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="9"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="9"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="9"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="9"/>
-    </row>
-    <row r="35" spans="1:15" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="9"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="9"/>
-      <c r="O35" s="9"/>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="E7" s="5"/>
+      <c r="F7" s="11"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="11"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="11"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="11"/>
+    </row>
+    <row r="12" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+    </row>
+    <row r="22" spans="1:20" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A25:O35"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="C1:T1"/>
+    <mergeCell ref="A12:T22"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="G2:H2"/>
     <mergeCell ref="K2:L2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="B1:O1"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="S2:T2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
